--- a/dados_processados/hemoprod_ce.xlsx
+++ b/dados_processados/hemoprod_ce.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JI66"/>
+  <dimension ref="A1:JI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -13234,7 +13234,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -14049,7 +14049,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -15679,7 +15679,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -20561,7 +20561,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -22187,7 +22187,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -23813,7 +23813,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -25439,7 +25439,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -27065,7 +27065,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -28691,7 +28691,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -31939,7 +31939,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -32754,7 +32754,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -33569,7 +33569,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -35193,7 +35193,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -36817,7 +36817,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -38443,7 +38443,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -40880,7 +40880,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -42506,7 +42506,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -43321,7 +43321,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -44947,7 +44947,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -46573,7 +46573,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -48199,7 +48199,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -53542,7 +53542,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>HEMOCENTRO REGIONAL DE IGUATU, HEMOCENTRO REGIONAL DE CRATO, HEMOCENTRO REGIONAL DE QUIXADÁ, HEMOCENTRO REGIONAL DE SOBRAL, HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+          <t>HEMOCENTRO COORDENADOR FORTALEZA</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -54276,6 +54276,281 @@
         <v>1248</v>
       </c>
       <c r="JI66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>HEMONÚCLEO DE JUAZEIRO DO NORTE</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
+      <c r="AZ67" t="inlineStr"/>
+      <c r="BA67" t="inlineStr"/>
+      <c r="BB67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="inlineStr"/>
+      <c r="BE67" t="inlineStr"/>
+      <c r="BF67" t="inlineStr"/>
+      <c r="BG67" t="inlineStr"/>
+      <c r="BH67" t="inlineStr"/>
+      <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr"/>
+      <c r="BK67" t="inlineStr"/>
+      <c r="BL67" t="inlineStr"/>
+      <c r="BM67" t="inlineStr"/>
+      <c r="BN67" t="inlineStr"/>
+      <c r="BO67" t="inlineStr"/>
+      <c r="BP67" t="inlineStr"/>
+      <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
+      <c r="BS67" t="inlineStr"/>
+      <c r="BT67" t="inlineStr"/>
+      <c r="BU67" t="inlineStr"/>
+      <c r="BV67" t="inlineStr"/>
+      <c r="BW67" t="inlineStr"/>
+      <c r="BX67" t="inlineStr"/>
+      <c r="BY67" t="inlineStr"/>
+      <c r="BZ67" t="inlineStr"/>
+      <c r="CA67" t="inlineStr"/>
+      <c r="CB67" t="inlineStr"/>
+      <c r="CC67" t="inlineStr"/>
+      <c r="CD67" t="inlineStr"/>
+      <c r="CE67" t="inlineStr"/>
+      <c r="CF67" t="inlineStr"/>
+      <c r="CG67" t="inlineStr"/>
+      <c r="CH67" t="inlineStr"/>
+      <c r="CI67" t="inlineStr"/>
+      <c r="CJ67" t="inlineStr"/>
+      <c r="CK67" t="inlineStr"/>
+      <c r="CL67" t="inlineStr"/>
+      <c r="CM67" t="inlineStr"/>
+      <c r="CN67" t="inlineStr"/>
+      <c r="CO67" t="inlineStr"/>
+      <c r="CP67" t="inlineStr"/>
+      <c r="CQ67" t="inlineStr"/>
+      <c r="CR67" t="inlineStr"/>
+      <c r="CS67" t="inlineStr"/>
+      <c r="CT67" t="inlineStr"/>
+      <c r="CU67" t="inlineStr"/>
+      <c r="CV67" t="inlineStr"/>
+      <c r="CW67" t="inlineStr"/>
+      <c r="CX67" t="inlineStr"/>
+      <c r="CY67" t="inlineStr"/>
+      <c r="CZ67" t="inlineStr"/>
+      <c r="DA67" t="inlineStr"/>
+      <c r="DB67" t="inlineStr"/>
+      <c r="DC67" t="inlineStr"/>
+      <c r="DD67" t="inlineStr"/>
+      <c r="DE67" t="inlineStr"/>
+      <c r="DF67" t="inlineStr"/>
+      <c r="DG67" t="inlineStr"/>
+      <c r="DH67" t="inlineStr"/>
+      <c r="DI67" t="inlineStr"/>
+      <c r="DJ67" t="inlineStr"/>
+      <c r="DK67" t="inlineStr"/>
+      <c r="DL67" t="inlineStr"/>
+      <c r="DM67" t="inlineStr"/>
+      <c r="DN67" t="inlineStr"/>
+      <c r="DO67" t="inlineStr"/>
+      <c r="DP67" t="inlineStr"/>
+      <c r="DQ67" t="inlineStr"/>
+      <c r="DR67" t="inlineStr"/>
+      <c r="DS67" t="inlineStr"/>
+      <c r="DT67" t="inlineStr"/>
+      <c r="DU67" t="inlineStr"/>
+      <c r="DV67" t="inlineStr"/>
+      <c r="DW67" t="inlineStr"/>
+      <c r="DX67" t="inlineStr"/>
+      <c r="DY67" t="inlineStr"/>
+      <c r="DZ67" t="inlineStr"/>
+      <c r="EA67" t="inlineStr"/>
+      <c r="EB67" t="inlineStr"/>
+      <c r="EC67" t="inlineStr"/>
+      <c r="ED67" t="inlineStr"/>
+      <c r="EE67" t="inlineStr"/>
+      <c r="EF67" t="inlineStr"/>
+      <c r="EG67" t="inlineStr"/>
+      <c r="EH67" t="inlineStr"/>
+      <c r="EI67" t="inlineStr"/>
+      <c r="EJ67" t="inlineStr"/>
+      <c r="EK67" t="inlineStr"/>
+      <c r="EL67" t="inlineStr"/>
+      <c r="EM67" t="inlineStr"/>
+      <c r="EN67" t="inlineStr"/>
+      <c r="EO67" t="inlineStr"/>
+      <c r="EP67" t="inlineStr"/>
+      <c r="EQ67" t="inlineStr"/>
+      <c r="ER67" t="inlineStr"/>
+      <c r="ES67" t="inlineStr"/>
+      <c r="ET67" t="inlineStr"/>
+      <c r="EU67" t="inlineStr"/>
+      <c r="EV67" t="inlineStr"/>
+      <c r="EW67" t="inlineStr"/>
+      <c r="EX67" t="inlineStr"/>
+      <c r="EY67" t="inlineStr"/>
+      <c r="EZ67" t="inlineStr"/>
+      <c r="FA67" t="inlineStr"/>
+      <c r="FB67" t="inlineStr"/>
+      <c r="FC67" t="inlineStr"/>
+      <c r="FD67" t="inlineStr"/>
+      <c r="FE67" t="inlineStr"/>
+      <c r="FF67" t="inlineStr"/>
+      <c r="FG67" t="inlineStr"/>
+      <c r="FH67" t="inlineStr"/>
+      <c r="FI67" t="inlineStr"/>
+      <c r="FJ67" t="inlineStr"/>
+      <c r="FK67" t="inlineStr"/>
+      <c r="FL67" t="inlineStr"/>
+      <c r="FM67" t="inlineStr"/>
+      <c r="FN67" t="inlineStr"/>
+      <c r="FO67" t="inlineStr"/>
+      <c r="FP67" t="inlineStr"/>
+      <c r="FQ67" t="inlineStr"/>
+      <c r="FR67" t="inlineStr"/>
+      <c r="FS67" t="inlineStr"/>
+      <c r="FT67" t="inlineStr"/>
+      <c r="FU67" t="inlineStr"/>
+      <c r="FV67" t="inlineStr"/>
+      <c r="FW67" t="inlineStr"/>
+      <c r="FX67" t="inlineStr"/>
+      <c r="FY67" t="inlineStr"/>
+      <c r="FZ67" t="inlineStr"/>
+      <c r="GA67" t="inlineStr"/>
+      <c r="GB67" t="inlineStr"/>
+      <c r="GC67" t="inlineStr"/>
+      <c r="GD67" t="inlineStr"/>
+      <c r="GE67" t="inlineStr"/>
+      <c r="GF67" t="inlineStr"/>
+      <c r="GG67" t="inlineStr"/>
+      <c r="GH67" t="inlineStr"/>
+      <c r="GI67" t="inlineStr"/>
+      <c r="GJ67" t="inlineStr"/>
+      <c r="GK67" t="inlineStr"/>
+      <c r="GL67" t="inlineStr"/>
+      <c r="GM67" t="inlineStr"/>
+      <c r="GN67" t="inlineStr"/>
+      <c r="GO67" t="inlineStr"/>
+      <c r="GP67" t="inlineStr"/>
+      <c r="GQ67" t="inlineStr"/>
+      <c r="GR67" t="inlineStr"/>
+      <c r="GS67" t="inlineStr"/>
+      <c r="GT67" t="inlineStr"/>
+      <c r="GU67" t="inlineStr"/>
+      <c r="GV67" t="inlineStr"/>
+      <c r="GW67" t="inlineStr"/>
+      <c r="GX67" t="inlineStr"/>
+      <c r="GY67" t="inlineStr"/>
+      <c r="GZ67" t="inlineStr"/>
+      <c r="HA67" t="inlineStr"/>
+      <c r="HB67" t="inlineStr"/>
+      <c r="HC67" t="inlineStr"/>
+      <c r="HD67" t="inlineStr"/>
+      <c r="HE67" t="inlineStr"/>
+      <c r="HF67" t="inlineStr"/>
+      <c r="HG67" t="inlineStr"/>
+      <c r="HH67" t="inlineStr"/>
+      <c r="HI67" t="inlineStr"/>
+      <c r="HJ67" t="inlineStr"/>
+      <c r="HK67" t="inlineStr"/>
+      <c r="HL67" t="inlineStr"/>
+      <c r="HM67" t="inlineStr"/>
+      <c r="HN67" t="inlineStr"/>
+      <c r="HO67" t="inlineStr"/>
+      <c r="HP67" t="inlineStr"/>
+      <c r="HQ67" t="inlineStr"/>
+      <c r="HR67" t="inlineStr"/>
+      <c r="HS67" t="inlineStr"/>
+      <c r="HT67" t="inlineStr"/>
+      <c r="HU67" t="inlineStr"/>
+      <c r="HV67" t="inlineStr"/>
+      <c r="HW67" t="inlineStr"/>
+      <c r="HX67" t="inlineStr"/>
+      <c r="HY67" t="inlineStr"/>
+      <c r="HZ67" t="inlineStr"/>
+      <c r="IA67" t="inlineStr"/>
+      <c r="IB67" t="inlineStr"/>
+      <c r="IC67" t="inlineStr"/>
+      <c r="ID67" t="inlineStr"/>
+      <c r="IE67" t="inlineStr"/>
+      <c r="IF67" t="inlineStr"/>
+      <c r="IG67" t="inlineStr"/>
+      <c r="IH67" t="inlineStr"/>
+      <c r="II67" t="inlineStr"/>
+      <c r="IJ67" t="inlineStr"/>
+      <c r="IK67" t="inlineStr"/>
+      <c r="IL67" t="inlineStr"/>
+      <c r="IM67" t="inlineStr"/>
+      <c r="IN67" t="inlineStr"/>
+      <c r="IO67" t="inlineStr"/>
+      <c r="IP67" t="inlineStr"/>
+      <c r="IQ67" t="inlineStr"/>
+      <c r="IR67" t="inlineStr"/>
+      <c r="IS67" t="inlineStr"/>
+      <c r="IT67" t="inlineStr"/>
+      <c r="IU67" t="inlineStr"/>
+      <c r="IV67" t="inlineStr"/>
+      <c r="IW67" t="inlineStr"/>
+      <c r="IX67" t="inlineStr"/>
+      <c r="IY67" t="inlineStr"/>
+      <c r="IZ67" t="inlineStr"/>
+      <c r="JA67" t="inlineStr"/>
+      <c r="JB67" t="inlineStr"/>
+      <c r="JC67" t="inlineStr"/>
+      <c r="JD67" t="inlineStr"/>
+      <c r="JE67" t="inlineStr"/>
+      <c r="JF67" t="inlineStr"/>
+      <c r="JG67" t="inlineStr"/>
+      <c r="JH67" t="inlineStr"/>
+      <c r="JI67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados_processados/hemoprod_ce.xlsx
+++ b/dados_processados/hemoprod_ce.xlsx
@@ -36267,7 +36267,7 @@
         <v>41</v>
       </c>
       <c r="DH44" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="DI44" t="n">
         <v>705</v>
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="EH44" t="n">
-        <v>1.973</v>
+        <v>2</v>
       </c>
       <c r="EI44" t="n">
         <v>665</v>
@@ -36361,13 +36361,13 @@
         <v>0</v>
       </c>
       <c r="EN44" t="n">
-        <v>2.274</v>
+        <v>2</v>
       </c>
       <c r="EO44" t="n">
-        <v>3.59</v>
+        <v>4</v>
       </c>
       <c r="EP44" t="n">
-        <v>1.543</v>
+        <v>2</v>
       </c>
       <c r="EQ44" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="ET44" t="n">
-        <v>1.836</v>
+        <v>2</v>
       </c>
       <c r="EU44" t="n">
         <v>949</v>
@@ -36439,7 +36439,7 @@
         <v>30</v>
       </c>
       <c r="FN44" t="n">
-        <v>1.617</v>
+        <v>2</v>
       </c>
       <c r="FO44" t="n">
         <v>0</v>
@@ -36547,7 +36547,7 @@
         <v>981</v>
       </c>
       <c r="GX44" t="n">
-        <v>1.374</v>
+        <v>1</v>
       </c>
       <c r="GY44" t="n">
         <v>0</v>
@@ -39595,7 +39595,7 @@
         <v>0</v>
       </c>
       <c r="EH48" t="n">
-        <v>1.688</v>
+        <v>2</v>
       </c>
       <c r="EI48" t="n">
         <v>45</v>
@@ -39613,7 +39613,7 @@
         <v>0</v>
       </c>
       <c r="EN48" t="n">
-        <v>1.711</v>
+        <v>2</v>
       </c>
       <c r="EO48" t="n">
         <v>907</v>
@@ -39631,7 +39631,7 @@
         <v>0</v>
       </c>
       <c r="ET48" t="n">
-        <v>1.518</v>
+        <v>2</v>
       </c>
       <c r="EU48" t="n">
         <v>55</v>
@@ -39691,7 +39691,7 @@
         <v>13</v>
       </c>
       <c r="FN48" t="n">
-        <v>1.258</v>
+        <v>1</v>
       </c>
       <c r="FO48" t="n">
         <v>0</v>
@@ -49990,7 +49990,7 @@
         <v>0</v>
       </c>
       <c r="EH61" t="n">
-        <v>1.425</v>
+        <v>1</v>
       </c>
       <c r="EI61" t="n">
         <v>62</v>
@@ -50008,7 +50008,7 @@
         <v>0</v>
       </c>
       <c r="EN61" t="n">
-        <v>1.787</v>
+        <v>2</v>
       </c>
       <c r="EO61" t="n">
         <v>491</v>
@@ -50026,7 +50026,7 @@
         <v>0</v>
       </c>
       <c r="ET61" t="n">
-        <v>1.633</v>
+        <v>2</v>
       </c>
       <c r="EU61" t="n">
         <v>119</v>
